--- a/Appetite - Test Cases - Sprint 5.xlsx
+++ b/Appetite - Test Cases - Sprint 5.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>TC1</t>
   </si>
@@ -185,7 +185,7 @@
 </t>
   </si>
   <si>
-    <t>To be able to view price category for a choose restaurant.</t>
+    <t>To be able to view price category for a choose restaurant in the list and detail screens.</t>
   </si>
 </sst>
 </file>
@@ -904,6 +904,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -916,9 +937,6 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -935,24 +953,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,7 +1309,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D10" sqref="D10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1332,15 +1332,15 @@
       <c r="A2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40"/>
     </row>
@@ -1361,9 +1361,9 @@
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
     </row>
@@ -1384,17 +1384,17 @@
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="18">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
@@ -1405,46 +1405,46 @@
       <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="18">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="69" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12" s="27" customFormat="1" ht="18">
-      <c r="A7" s="58"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>
     </row>
@@ -1458,11 +1458,11 @@
       <c r="C8" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="51" t="s">
         <v>34</v>
       </c>
@@ -1484,11 +1484,11 @@
       <c r="C9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="51" t="s">
         <v>28</v>
       </c>
@@ -1510,18 +1510,20 @@
       <c r="C10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="51" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="52">
         <v>43186</v>
       </c>
-      <c r="I10" s="51"/>
+      <c r="I10" s="51" t="s">
+        <v>23</v>
+      </c>
       <c r="J10" s="51"/>
       <c r="K10" s="53"/>
       <c r="L10" s="53"/>
@@ -1536,11 +1538,11 @@
       <c r="C11" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="51" t="s">
         <v>34</v>
       </c>
@@ -1554,6 +1556,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="H2:J2"/>
@@ -1563,14 +1573,6 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D6:F7"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Appetite - Test Cases - Sprint 5.xlsx
+++ b/Appetite - Test Cases - Sprint 5.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiodealmeidabrunacci/Mobile_Developer/Mobile Application Dev Project/Test/"/>
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="821"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 4" sheetId="122" r:id="rId1"/>
+    <sheet name="Sprint-5" sheetId="122" r:id="rId1"/>
     <sheet name="Test Report" sheetId="107" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -29,19 +29,11 @@
     <definedName name="VancoProducts">[1]Validation!$B$2:$B$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>TC1</t>
   </si>
@@ -59,7 +51,7 @@
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Test Case Description</t>
@@ -111,18 +103,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Tested By</t>
-  </si>
-  <si>
-    <t>Patient-Clinical Data</t>
   </si>
   <si>
     <r>
@@ -131,7 +111,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -140,52 +120,85 @@
     </r>
   </si>
   <si>
-    <t>Fernando</t>
-  </si>
-  <si>
-    <t>List Details
-Check if restaurant rate appears in the list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the list of restaurants from the menu at the top-right corner
-</t>
-  </si>
-  <si>
-    <t>For each restaurant listed you might see the restaurant rate represented as five stars which will be filled in red according to its rate. For example, if the restaurant is rated 4.5, 4 white starts will have a full red background and the fifth star (from left to right) will be backgrounded partially red and grey.</t>
-  </si>
-  <si>
-    <t>Increment Map Screen to use Android's GPS</t>
-  </si>
-  <si>
-    <t>Input various longitude and latitude values of random location from google map</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Tested By</t>
   </si>
   <si>
     <t>Irvin</t>
   </si>
   <si>
-    <t>Change of location on the map</t>
-  </si>
-  <si>
     <t>To be able to view detailed information of the restaurant clicked</t>
   </si>
   <si>
-    <t>Click on all the restaurants one by one in the list opened after obtaining the result of the tests stated before</t>
-  </si>
-  <si>
-    <t>To be able to view detailed information on each restaurant</t>
+    <t>Efficient position and styling for pictures in detail screens</t>
+  </si>
+  <si>
+    <t>Apt positioning and styling for pictures in detail screens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement UI for showing pictures in both screens. Implement photos section in details screen </t>
+  </si>
+  <si>
+    <t>Click on each restaurant on the list after inputting varied locations to view details.</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Expected appearance of pictures on the two screens along with the photo section in details.</t>
+  </si>
+  <si>
+    <t>Implement backend yelp API call to retrieve pictures information</t>
+  </si>
+  <si>
+    <t>Appropriate pictures of each restaurant are displayed in detail.</t>
+  </si>
+  <si>
+    <t>Call detail screen when you tap on the popup of map screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on each popup and it should lead to the detailed screen of the restaurant.  </t>
+  </si>
+  <si>
+    <t>On clicking on map, popup appears, on further clicking on popup it shoulfd open the detail screen of the restaurant clicked.</t>
+  </si>
+  <si>
+    <t>TC5</t>
   </si>
   <si>
     <t>Sergio Brunacci</t>
   </si>
   <si>
-    <t>Restaurant's price category will be shown in List and Details screen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the list of restaurants and their details and check the information about price category.
-</t>
-  </si>
-  <si>
-    <t>To be able to view price category for a choose restaurant in the list and detail screens.</t>
+    <t>Appetite</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>Restaurant's price category will be shown in the list of restaurants.</t>
+  </si>
+  <si>
+    <t>Open the list of restaurants and check the information about price category.</t>
+  </si>
+  <si>
+    <t>To be able to view price category for a choose restaurant in the list screen.</t>
+  </si>
+  <si>
+    <t>Restaurant's price category will be shown in the Details screen.</t>
+  </si>
+  <si>
+    <t>Open the details screen and check the information about price category.</t>
+  </si>
+  <si>
+    <t>To be able to view price category for a choose restaurant in the detail screen.</t>
   </si>
 </sst>
 </file>
@@ -195,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -204,13 +217,11 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -249,6 +260,13 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -277,55 +295,16 @@
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -366,279 +345,279 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -647,75 +626,75 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,18 +703,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,7 +722,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -752,7 +731,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -760,10 +739,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -775,11 +754,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -796,7 +778,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,30 +794,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -850,109 +841,94 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -962,36 +938,8 @@
     <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="2"/>
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="3"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1007,10 +955,2291 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Data"/>
       <sheetName val="Validation"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>AFGHANISTAN</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>MPLS Matrix</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>MPLS, ADSL, No Contention</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>ALAND ISLANDS</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>DIA</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>MPLS, ADSL, Low Contention</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>56Kbps</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>56Kbps</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>16Kbps</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>None</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>ALBANIA</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>MPLS, ADSL, Medium Contention</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>64Kbps</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>64Kbps</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>32Kbps</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>Basic</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ALGERIA</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>MPLS, ADSL, High, Contention</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>128Kbps</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>128Kbps</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>48Kbps</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>AMERICAN SAMOA</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>MPLS, SDSL, No Contention</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>192Kbps</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>192Kbps</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>56Kbps</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>ANDORRA</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>MPLS, SDSL, Low Contention</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>256Kbps</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>256Kbps</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>64Kbps</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>ANGOLA</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>MPLS, SDSL, Medium Contention</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>384Kbps</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>384Kbps</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>96Kbps</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>ANGUILLA</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>MPLS, SDSL, High Contention</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>512Kbps</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>512Kbps</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>128Kbps</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>ANTARCTICA</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>MPLS, Leased Line</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>768Kbps</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>768Kbps</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>160Kbps</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>ANTIGUA AND BARBUDA</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>MPLS, Frame Relay</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>1Mbps</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>1Mbps</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>192Kbps</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>ARGENTINA</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>MPLS, ATM</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>T1</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>1.5Mbps</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>256Kbps</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>ARMENIA</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>MPLS, Ethernet</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>E1</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>2Mbps</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>320Kbps</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>ARUBA</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>MPLS, Fast Ethernet</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>2xT1</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>3Mbps</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>384Kbps</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>ASCENSION ISLAND</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>MPLS, GigaBit Ethernet</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>2xE1</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>4Mbps</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>448Kbps</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>AUSTRALIA</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>MPLS, Protected Access</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>3xT1</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>4.5Mbps</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>512Kbps</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>AUSTRIA</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>DIA, ADSL, Business Performance, Static IP Address</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>3xE1</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>5Mbps</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>768Kbps</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>AZERBAIJAN</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>DIA, ADSL, Standard Performance, Static IP Address</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>4xT1</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>6Mbps</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>1Mbps</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>BAHAMAS</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>DIA, ADSL, Lower Performance, Dynamic IP Address</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>4xE1</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>8Mbps</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>1.5Mbps</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>BAHRAIN</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>DIA, ADSL, Lower Performance, Static IP Address</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>Ethernet</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>10Mbps</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v>2Mbps</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>BAKER ISLAND</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>DIA, SDSL, Business Performance, Static IP Address</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>E3</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>12Mbps</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v>3Mbps</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>BANGLADESH</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>DIA, SDSL, Standard Performance, Static IP Address</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>DS3</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>14Mbps</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>4Mbps</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>BARBADOS</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>DIA, SDSL, Lower Performance, Dynamic IP Address</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>Fast Ethernet</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>16Mbps</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>4.5Mpbs</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>BELARUS</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>DIA, SDSL, Lower Performance, Static IP Address</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>STM1/OC3</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>18Mbps</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>5Mbps</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>BELGIUM</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>DIA Leased Line</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>Gigabit Ethernet</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>20Mbps</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>6Mbps</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>BELIZE</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>DIA Ethernet</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>64/128</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>25Mbps</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>8Mbps</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>BENIN</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>DIA Fast Ethenet</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>64/192</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>30Mbps</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>10Mbps</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>BERMUDA</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>DIA Gigabit Ethernet</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>64/256</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>35Mbps</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>12Mbps</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>BHUTAN</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>DIA Protected Access</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>64/384</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>40Mbps</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>14Mbps</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>BOLIVIA</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>64/512</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>45Mbps</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>16Mbps</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>BOSNIA AND HERZEGOVINA</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>64/640</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>50Mbps</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>18Mbps</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>BOTSWANA</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>64/768</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>60Mbps</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>20Mbps</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>BOUVET ISLAND</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>64/896</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>70Mbps</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>25Mbps</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>BRAZIL</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>64/1024</v>
+          </cell>
+          <cell r="F34" t="str">
+            <v>90Mbps</v>
+          </cell>
+          <cell r="G34" t="str">
+            <v>30Mbps</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>BRITISH INDIAN OCEAN TERRITORY</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>128/64</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>100Mbps</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>35Mbps</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>BRITISH VIRGIN ISLANDS</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>128/192</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>110Mbps</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>40Mbps</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>BRUNEI</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>128/256</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>120Mbps</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v>45Mbps</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>BULGARIA</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>128/384</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>130Mbps</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>50Mbps</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>BURKINA FASO</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>128/512</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>140Mbps</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>60Mbps</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>BURUNDI</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>128/640</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>150Mbps</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>70Mbps</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>CAMBODIA</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>128/768</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v>90Mbps</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>CAMEROON</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>128/896</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>100Mbps</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>CANADA</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>128/1024</v>
+          </cell>
+          <cell r="G43" t="str">
+            <v>110Mbps</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>CAPE VERDE</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>192/64</v>
+          </cell>
+          <cell r="G44" t="str">
+            <v>120Mbps</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>CAYMAN ISLANDS</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>192/128</v>
+          </cell>
+          <cell r="G45" t="str">
+            <v>130Mbps</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>CENTRAL AFRICAN REPUBLIC</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>192/192</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>140Mbps</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>CHAD</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>192/256</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>150Mbps</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>CHILE</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>192/384</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>CHINA</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>192/256</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>CHRISTMAS ISLAND</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>192/384</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>COCOS (KEELING) ISLANDS</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>192/512</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>COLOMBIA</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>192/640</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>COMOROS</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>192/768</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>CONGO, DEM. REP.</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>192/896</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>CONGO, REP.</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>192/1024</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>COOK ISLANDS</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>256/64</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>COSTA RICA</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>256/128</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>COTE D'IVOIRE</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>256/192</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>CROATIA</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>256/384</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>CUBA</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>256/512</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>CYPRUS</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>256/640</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>CZECH REPUBLIC</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>256/768</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>DENMARK</v>
+          </cell>
+          <cell r="E63" t="str">
+            <v>256/896</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>DJIBOUTI</v>
+          </cell>
+          <cell r="E64" t="str">
+            <v>256/1024</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>DOMINICA</v>
+          </cell>
+          <cell r="E65" t="str">
+            <v>384/64</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>DOMINICAN REPUBLIC</v>
+          </cell>
+          <cell r="E66" t="str">
+            <v>384/128</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>EAST TIMOR</v>
+          </cell>
+          <cell r="E67" t="str">
+            <v>384/192</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>ECUADOR</v>
+          </cell>
+          <cell r="E68" t="str">
+            <v>384/256</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>EGYPT</v>
+          </cell>
+          <cell r="E69" t="str">
+            <v>384/512</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>EL SALVADOR</v>
+          </cell>
+          <cell r="E70" t="str">
+            <v>384/640</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>EQUATORIAL GUINEA</v>
+          </cell>
+          <cell r="E71" t="str">
+            <v>384/768</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>ERITREA</v>
+          </cell>
+          <cell r="E72" t="str">
+            <v>384/896</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>ESTONIA</v>
+          </cell>
+          <cell r="E73" t="str">
+            <v>384/1024</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>ETHIOPIA</v>
+          </cell>
+          <cell r="E74" t="str">
+            <v>512/64</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>FALKLAND ISLANDS</v>
+          </cell>
+          <cell r="E75" t="str">
+            <v>512/128</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>FAROE ISLANDS</v>
+          </cell>
+          <cell r="E76" t="str">
+            <v>512/192</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>FIJI</v>
+          </cell>
+          <cell r="E77" t="str">
+            <v>512/256</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>FINLAND</v>
+          </cell>
+          <cell r="E78" t="str">
+            <v>512/384</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>FRANCE</v>
+          </cell>
+          <cell r="E79" t="str">
+            <v>512/640</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>FRENCH GUIANA</v>
+          </cell>
+          <cell r="E80" t="str">
+            <v>512/768</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>FRENCH POLYNESIA</v>
+          </cell>
+          <cell r="E81" t="str">
+            <v>512/896</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>FRENCH SOUTHERN TERRITORIES</v>
+          </cell>
+          <cell r="E82" t="str">
+            <v>512/1024</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>GABON</v>
+          </cell>
+          <cell r="E83" t="str">
+            <v>640/64</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>GAMBIA, THE</v>
+          </cell>
+          <cell r="E84" t="str">
+            <v>640/128</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>GEORGIA</v>
+          </cell>
+          <cell r="E85" t="str">
+            <v>640/768</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>GERMANY</v>
+          </cell>
+          <cell r="E86" t="str">
+            <v>640/896</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>GHANA</v>
+          </cell>
+          <cell r="E87" t="str">
+            <v>640/1024</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>GIBRALTAR</v>
+          </cell>
+          <cell r="E88" t="str">
+            <v>768/64</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>GREECE</v>
+          </cell>
+          <cell r="E89" t="str">
+            <v>768/128</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>GREENLAND</v>
+          </cell>
+          <cell r="E90" t="str">
+            <v>768/192</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>GRENADA</v>
+          </cell>
+          <cell r="E91" t="str">
+            <v>768/256</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>GUADELOUPE</v>
+          </cell>
+          <cell r="E92" t="str">
+            <v>768/384</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>GUAM</v>
+          </cell>
+          <cell r="E93" t="str">
+            <v>768/512</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>GUATEMALA</v>
+          </cell>
+          <cell r="E94" t="str">
+            <v>768/640</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>GUERNSEY</v>
+          </cell>
+          <cell r="E95" t="str">
+            <v>768/896</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>GUINEA</v>
+          </cell>
+          <cell r="E96" t="str">
+            <v>768/1024</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>GUINEA-BISSAU</v>
+          </cell>
+          <cell r="E97" t="str">
+            <v>896/64</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>GUYANA</v>
+          </cell>
+          <cell r="E98" t="str">
+            <v>896/128</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>HAITI</v>
+          </cell>
+          <cell r="E99" t="str">
+            <v>896/192</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>HEARD ISLAND AND MCDONALD ISLANDS</v>
+          </cell>
+          <cell r="E100" t="str">
+            <v>896/256</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>HONDURAS</v>
+          </cell>
+          <cell r="E101" t="str">
+            <v>896/256</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>HONG KONG</v>
+          </cell>
+          <cell r="E102" t="str">
+            <v>896/384</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>HOWLAND ISLAND</v>
+          </cell>
+          <cell r="E103" t="str">
+            <v>896/512</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>HUNGARY</v>
+          </cell>
+          <cell r="E104" t="str">
+            <v>896/640</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>ICELAND</v>
+          </cell>
+          <cell r="E105" t="str">
+            <v>896/768</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>INDIA</v>
+          </cell>
+          <cell r="E106" t="str">
+            <v>896/1024</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>INDONESIA</v>
+          </cell>
+          <cell r="E107" t="str">
+            <v>1024/64</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>IRAN</v>
+          </cell>
+          <cell r="E108" t="str">
+            <v>1024/128</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>IRAQ</v>
+          </cell>
+          <cell r="E109" t="str">
+            <v>1024/192</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>IRELAND</v>
+          </cell>
+          <cell r="E110" t="str">
+            <v>1024/256</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>ISRAEL</v>
+          </cell>
+          <cell r="E111" t="str">
+            <v>1024/384</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>ITALY</v>
+          </cell>
+          <cell r="E112" t="str">
+            <v>1024/512</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>JAMAICA</v>
+          </cell>
+          <cell r="E113" t="str">
+            <v>1024/640</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>JAPAN</v>
+          </cell>
+          <cell r="E114" t="str">
+            <v>1024/768</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>JARVIS ISLAND</v>
+          </cell>
+          <cell r="E115" t="str">
+            <v>1024/896</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>JERSEY</v>
+          </cell>
+          <cell r="E116" t="str">
+            <v>1152/64</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>JOHNSTON ATOLL</v>
+          </cell>
+          <cell r="E117" t="str">
+            <v>1152/128</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>JORDAN</v>
+          </cell>
+          <cell r="E118" t="str">
+            <v>1152/192</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>KAZAKHSTAN</v>
+          </cell>
+          <cell r="E119" t="str">
+            <v>1152/256</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>KENYA</v>
+          </cell>
+          <cell r="E120" t="str">
+            <v>1152/384</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>KIRIBATI</v>
+          </cell>
+          <cell r="E121" t="str">
+            <v>1152/512</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>KOREA, NORTH</v>
+          </cell>
+          <cell r="E122" t="str">
+            <v>1152/640</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>KOREA, SOUTH</v>
+          </cell>
+          <cell r="E123" t="str">
+            <v>1152/768</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>KUWAIT</v>
+          </cell>
+          <cell r="E124" t="str">
+            <v>1152/896</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>KYRGYZSTAN</v>
+          </cell>
+          <cell r="E125" t="str">
+            <v>1152/1024</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>LAOS</v>
+          </cell>
+          <cell r="E126" t="str">
+            <v>1280/64</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>LATVIA</v>
+          </cell>
+          <cell r="E127" t="str">
+            <v>1280/128</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>LEBANON</v>
+          </cell>
+          <cell r="E128" t="str">
+            <v>1280/192</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>LESOTHO</v>
+          </cell>
+          <cell r="E129" t="str">
+            <v>1280/256</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>LIBERIA</v>
+          </cell>
+          <cell r="E130" t="str">
+            <v>1280/384</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>LIBYA</v>
+          </cell>
+          <cell r="E131" t="str">
+            <v>1280/512</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>LIECHTENSTEIN</v>
+          </cell>
+          <cell r="E132" t="str">
+            <v>1280/640</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>LITHUANIA</v>
+          </cell>
+          <cell r="E133" t="str">
+            <v>1280/768</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>LUXEMBOURG</v>
+          </cell>
+          <cell r="E134" t="str">
+            <v>1280/896</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>MACAO</v>
+          </cell>
+          <cell r="E135" t="str">
+            <v>1280/1024</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136" t="str">
+            <v>MACEDONIA</v>
+          </cell>
+          <cell r="E136" t="str">
+            <v>1408/64</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137" t="str">
+            <v>MADAGASCAR</v>
+          </cell>
+          <cell r="E137" t="str">
+            <v>1408/128</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138" t="str">
+            <v>MALAWI</v>
+          </cell>
+          <cell r="E138" t="str">
+            <v>1408/192</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139" t="str">
+            <v>MALAYSIA</v>
+          </cell>
+          <cell r="E139" t="str">
+            <v>1408/256</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140" t="str">
+            <v>MALDIVES</v>
+          </cell>
+          <cell r="E140" t="str">
+            <v>1408/384</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141" t="str">
+            <v>MALI</v>
+          </cell>
+          <cell r="E141" t="str">
+            <v>1408/512</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142" t="str">
+            <v>MALTA</v>
+          </cell>
+          <cell r="E142" t="str">
+            <v>1408/640</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143" t="str">
+            <v>MANN</v>
+          </cell>
+          <cell r="E143" t="str">
+            <v>1408/768</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144" t="str">
+            <v>MARSHALL ISLANDS</v>
+          </cell>
+          <cell r="E144" t="str">
+            <v>1408/896</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145" t="str">
+            <v>MARTINIQUE</v>
+          </cell>
+          <cell r="E145" t="str">
+            <v>1408/1024</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146" t="str">
+            <v>MAURITANIA</v>
+          </cell>
+          <cell r="E146" t="str">
+            <v>1536/64</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
+            <v>MAURITIUS</v>
+          </cell>
+          <cell r="E147" t="str">
+            <v>1536/128</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148" t="str">
+            <v>MAYOTTE</v>
+          </cell>
+          <cell r="E148" t="str">
+            <v>1536/192</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149" t="str">
+            <v>MEXICO</v>
+          </cell>
+          <cell r="E149" t="str">
+            <v>1536/256</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150" t="str">
+            <v>MICRONESIA</v>
+          </cell>
+          <cell r="E150" t="str">
+            <v>1536/384</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151" t="str">
+            <v>MIDWAY ISLAND</v>
+          </cell>
+          <cell r="E151" t="str">
+            <v>1536/512</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152" t="str">
+            <v>MOLDOVA</v>
+          </cell>
+          <cell r="E152" t="str">
+            <v>1536/640</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153" t="str">
+            <v>MONACO</v>
+          </cell>
+          <cell r="E153" t="str">
+            <v>1536/768</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154" t="str">
+            <v>MONGOLIA</v>
+          </cell>
+          <cell r="E154" t="str">
+            <v>1536/896</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155" t="str">
+            <v>MONTSERRAT</v>
+          </cell>
+          <cell r="E155" t="str">
+            <v>1536/1024</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156" t="str">
+            <v>MOROCCO</v>
+          </cell>
+          <cell r="E156" t="str">
+            <v>1664/64</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157" t="str">
+            <v>MOZAMBIQUE</v>
+          </cell>
+          <cell r="E157" t="str">
+            <v>1664/128</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>MYANMAR</v>
+          </cell>
+          <cell r="E158" t="str">
+            <v>1664/192</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>NAMIBIA</v>
+          </cell>
+          <cell r="E159" t="str">
+            <v>1664/256</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v>NAURU</v>
+          </cell>
+          <cell r="E160" t="str">
+            <v>1664/384</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>NAVASSA ISLAND</v>
+          </cell>
+          <cell r="E161" t="str">
+            <v>1664/512</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>NEPAL</v>
+          </cell>
+          <cell r="E162" t="str">
+            <v>1664/640</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>NETHERLANDS</v>
+          </cell>
+          <cell r="E163" t="str">
+            <v>1664/768</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
+            <v>NETHERLANDS ANTILLES</v>
+          </cell>
+          <cell r="E164" t="str">
+            <v>1664/896</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>NEW CALEDONIA</v>
+          </cell>
+          <cell r="E165" t="str">
+            <v>1664/1024</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166" t="str">
+            <v>NEW ZEALAND</v>
+          </cell>
+          <cell r="E166" t="str">
+            <v>1792/64</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>NICARAGUA</v>
+          </cell>
+          <cell r="E167" t="str">
+            <v>1792/128</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>NIGER</v>
+          </cell>
+          <cell r="E168" t="str">
+            <v>1792/192</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
+            <v>NIGERIA</v>
+          </cell>
+          <cell r="E169" t="str">
+            <v>1792/256</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170" t="str">
+            <v>NIUE</v>
+          </cell>
+          <cell r="E170" t="str">
+            <v>1792/384</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>NORFOLK ISLAND</v>
+          </cell>
+          <cell r="E171" t="str">
+            <v>1792/512</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>NORTHERN MARIANA ISLANDS</v>
+          </cell>
+          <cell r="E172" t="str">
+            <v>1792/640</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v>NORWAY</v>
+          </cell>
+          <cell r="E173" t="str">
+            <v>1792/768</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174" t="str">
+            <v>OMAN</v>
+          </cell>
+          <cell r="E174" t="str">
+            <v>1792/896</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175" t="str">
+            <v>PAKISTAN</v>
+          </cell>
+          <cell r="E175" t="str">
+            <v>1792/1024</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176" t="str">
+            <v>PALAU</v>
+          </cell>
+          <cell r="E176" t="str">
+            <v>1920/64</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177" t="str">
+            <v>PALESTINIAN TERRITORY</v>
+          </cell>
+          <cell r="E177" t="str">
+            <v xml:space="preserve">1920/128 </v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178" t="str">
+            <v>PALMYRA ATOLL</v>
+          </cell>
+          <cell r="E178" t="str">
+            <v>1920/192</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179" t="str">
+            <v>PANAMA</v>
+          </cell>
+          <cell r="E179" t="str">
+            <v>1920/256</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180" t="str">
+            <v>PAPUA NEW GUINEA</v>
+          </cell>
+          <cell r="E180" t="str">
+            <v>1920/384</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181" t="str">
+            <v>PARAGUAY</v>
+          </cell>
+          <cell r="E181" t="str">
+            <v>1920/512</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182" t="str">
+            <v>PERU</v>
+          </cell>
+          <cell r="E182" t="str">
+            <v>1920/640</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183" t="str">
+            <v>PHILIPPINES</v>
+          </cell>
+          <cell r="E183" t="str">
+            <v>1920/768</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184" t="str">
+            <v>PITCAIRN</v>
+          </cell>
+          <cell r="E184" t="str">
+            <v>1920/896</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185" t="str">
+            <v>POLAND</v>
+          </cell>
+          <cell r="E185" t="str">
+            <v>1920/1024</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186" t="str">
+            <v>PORTUGAL</v>
+          </cell>
+          <cell r="E186" t="str">
+            <v>2048/64</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187" t="str">
+            <v>PUERTO RICO</v>
+          </cell>
+          <cell r="E187" t="str">
+            <v>2048/128</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188" t="str">
+            <v>QATAR</v>
+          </cell>
+          <cell r="E188" t="str">
+            <v>2048/192</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189" t="str">
+            <v>REUNION</v>
+          </cell>
+          <cell r="E189" t="str">
+            <v>2048/256</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190" t="str">
+            <v>ROMANIA</v>
+          </cell>
+          <cell r="E190" t="str">
+            <v>2048/384</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191" t="str">
+            <v>RUSSIAN FEDERATION</v>
+          </cell>
+          <cell r="E191" t="str">
+            <v>2048/512</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192" t="str">
+            <v>RWANDA</v>
+          </cell>
+          <cell r="E192" t="str">
+            <v>2048/640</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193" t="str">
+            <v>SAINT HELENA</v>
+          </cell>
+          <cell r="E193" t="str">
+            <v>2048/768</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194" t="str">
+            <v>SAINT KITTS AND NEVIS</v>
+          </cell>
+          <cell r="E194" t="str">
+            <v>2048/896</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195" t="str">
+            <v>SAINT LUCIA</v>
+          </cell>
+          <cell r="E195" t="str">
+            <v>2048/1024</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196" t="str">
+            <v>SAINT PIERRE AND MIQUELON</v>
+          </cell>
+          <cell r="E196" t="str">
+            <v>3072/64</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197" t="str">
+            <v>SAINT VINCENT AND THE GRENADINES</v>
+          </cell>
+          <cell r="E197" t="str">
+            <v>3072/128</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198" t="str">
+            <v>SAMOA</v>
+          </cell>
+          <cell r="E198" t="str">
+            <v>3072/192</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199" t="str">
+            <v>SAN MARINO</v>
+          </cell>
+          <cell r="E199" t="str">
+            <v>3072/256</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200" t="str">
+            <v>SAO TOME AND PRINCIPE</v>
+          </cell>
+          <cell r="E200" t="str">
+            <v>3072/384</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201" t="str">
+            <v>SAUDI ARABIA</v>
+          </cell>
+          <cell r="E201" t="str">
+            <v>3072/512</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202" t="str">
+            <v>SENEGAL</v>
+          </cell>
+          <cell r="E202" t="str">
+            <v>3072/640</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203" t="str">
+            <v>SERBIA AND MONTENEGRO</v>
+          </cell>
+          <cell r="E203" t="str">
+            <v>3072/768</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204" t="str">
+            <v>SEYCHELLES</v>
+          </cell>
+          <cell r="E204" t="str">
+            <v>3072/896</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205" t="str">
+            <v>SIERRA LEONE</v>
+          </cell>
+          <cell r="E205" t="str">
+            <v>3072/1024</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206" t="str">
+            <v>SINGAPORE</v>
+          </cell>
+          <cell r="E206" t="str">
+            <v>4096/64</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207" t="str">
+            <v>SLOVAKIA</v>
+          </cell>
+          <cell r="E207" t="str">
+            <v>4096/128</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208" t="str">
+            <v>SLOVENIA</v>
+          </cell>
+          <cell r="E208" t="str">
+            <v>4096/192</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209" t="str">
+            <v>SOLOMON ISLANDS</v>
+          </cell>
+          <cell r="E209" t="str">
+            <v>4096/256</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210" t="str">
+            <v>SOMALIA</v>
+          </cell>
+          <cell r="E210" t="str">
+            <v>4096/384</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211" t="str">
+            <v>SOUTH AFRICA</v>
+          </cell>
+          <cell r="E211" t="str">
+            <v>4096/512</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212" t="str">
+            <v>SOUTH GEORGIA AND THE SOUTH SANDWICH ISLANDS</v>
+          </cell>
+          <cell r="E212" t="str">
+            <v>4096/640</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213" t="str">
+            <v>SPAIN</v>
+          </cell>
+          <cell r="E213" t="str">
+            <v>4096/768</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214" t="str">
+            <v>SPRATLY ISLANDS</v>
+          </cell>
+          <cell r="E214" t="str">
+            <v>4096/896</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215" t="str">
+            <v>SRI LANKA</v>
+          </cell>
+          <cell r="E215" t="str">
+            <v>4096/1024</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216" t="str">
+            <v>SUDAN</v>
+          </cell>
+          <cell r="E216" t="str">
+            <v>64/64</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217" t="str">
+            <v>SURINAME</v>
+          </cell>
+          <cell r="E217" t="str">
+            <v>128/128</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218" t="str">
+            <v>SVALBARD AND JAN MAYEN</v>
+          </cell>
+          <cell r="E218" t="str">
+            <v>256/256</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219" t="str">
+            <v>SWAZILAND</v>
+          </cell>
+          <cell r="E219" t="str">
+            <v>384/384</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220" t="str">
+            <v>SWEDEN</v>
+          </cell>
+          <cell r="E220" t="str">
+            <v>512/512</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221" t="str">
+            <v>SWITZERLAND</v>
+          </cell>
+          <cell r="E221" t="str">
+            <v>768/768</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222" t="str">
+            <v>SYRIA</v>
+          </cell>
+          <cell r="E222" t="str">
+            <v>896/896</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223" t="str">
+            <v>TAIWAN</v>
+          </cell>
+          <cell r="E223" t="str">
+            <v>1024/1024</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224" t="str">
+            <v>TAJIKISTAN</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225" t="str">
+            <v>TANZANIA</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226" t="str">
+            <v>THAILAND</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227" t="str">
+            <v>TOGO</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="A228" t="str">
+            <v>TOKELAU</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="A229" t="str">
+            <v>TONGA</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="A230" t="str">
+            <v>TRINIDAD AND TOBAGO</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="A231" t="str">
+            <v>TRISTAN DA CUNHA</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="A232" t="str">
+            <v>TROMELIN ISLAND</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="A233" t="str">
+            <v>TUNISIA</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="A234" t="str">
+            <v>TURKEY</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="A235" t="str">
+            <v>TURKMENISTAN</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="A236" t="str">
+            <v>TURKS AND CAICOS ISLANDS</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="A237" t="str">
+            <v>TUVALU</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="A238" t="str">
+            <v>UGANDA</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="A239" t="str">
+            <v>UKRAINE</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="A240" t="str">
+            <v>UNITED ARAB EMIRATES</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="A241" t="str">
+            <v>UNITED KINGDOM</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="A242" t="str">
+            <v>UNITED STATES</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="A243" t="str">
+            <v>URUGUAY</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="A244" t="str">
+            <v>US VIRGIN ISLANDS</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="A245" t="str">
+            <v>UZBEKISTAN</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="A246" t="str">
+            <v>VANUATU</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="A247" t="str">
+            <v>VATICAN CITY</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="A248" t="str">
+            <v>VENEZUELA</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="A249" t="str">
+            <v>VIETNAM</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="A250" t="str">
+            <v>WAKE ISLAND</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="A251" t="str">
+            <v>WALLIS AND FUTUNA</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="A252" t="str">
+            <v>WESTERN SAHARA</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="A253" t="str">
+            <v>YEMEN</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="A254" t="str">
+            <v>ZAMBIA</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="A255" t="str">
+            <v>ZIMBABWE</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1062,9 +3291,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1092,14 +3321,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1127,6 +3373,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1306,72 +3569,67 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" style="39" customWidth="1"/>
     <col min="3" max="3" width="42.1640625" customWidth="1"/>
     <col min="4" max="4" width="23.83203125" customWidth="1"/>
     <col min="6" max="6" width="27.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="7"/>
-    <col min="10" max="10" width="18" style="36" customWidth="1"/>
+    <col min="9" max="9" width="9" style="8"/>
+    <col min="10" max="10" width="18" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1">
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="36">
-      <c r="A2" s="38" t="s">
-        <v>27</v>
+    <row r="1" spans="1:10" ht="15" thickBot="1"/>
+    <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="A2" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
       <c r="D2" s="55"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
       <c r="J2" s="57"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="18">
-      <c r="A3" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="42">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="13">
+      <c r="A3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="44">
+        <f>COUNTIF(I8:I12,"Pass")</f>
         <v>5</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="43">
-        <f>COUNTIF(I7:I668,"Pending")</f>
+      <c r="C3" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="45">
+        <f>COUNTIF(I7:I669,"Pending")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
       <c r="J3" s="57"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="19" thickBot="1">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:10" s="1" customFormat="1" thickBot="1">
+      <c r="A4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="49">
         <f>COUNTIF(I8:I11,"Fail")</f>
         <v>0</v>
       </c>
@@ -1379,48 +3637,45 @@
         <v>19</v>
       </c>
       <c r="D4" s="48">
+        <f>COUNTA(A8:A12)</f>
         <v>5</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="57"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="18">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="13">
       <c r="A5" s="58"/>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
     </row>
-    <row r="6" spans="1:12" s="33" customFormat="1" ht="18">
+    <row r="6" spans="1:10" s="37" customFormat="1" ht="15">
       <c r="A6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="56" t="s">
         <v>18</v>
@@ -1431,139 +3686,183 @@
       <c r="J6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
     </row>
-    <row r="7" spans="1:12" s="27" customFormat="1" ht="18">
+    <row r="7" spans="1:10" s="31" customFormat="1" ht="13">
       <c r="A7" s="56"/>
-      <c r="B7" s="64"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="56"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="60"/>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="90" customHeight="1">
-      <c r="A8" s="51" t="s">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="26">
+      <c r="A8" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="26">
+      <c r="A9" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="51" t="s">
+      <c r="C9" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="26">
+      <c r="A10" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="52">
-        <v>43186</v>
-      </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+      <c r="I10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="54">
-      <c r="A9" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="51" t="s">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="85.75" customHeight="1">
+      <c r="A11" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="52">
-        <v>43186</v>
-      </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="I11" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="38"/>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="72">
-      <c r="A10" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="51" t="s">
+    <row r="12" spans="1:10" ht="43" customHeight="1">
+      <c r="A12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="B12" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="52">
-        <v>43186</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
+      <c r="H12" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="38"/>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="54">
-      <c r="A11" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="52">
-        <v>43186</v>
-      </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+    <row r="13" spans="1:10" ht="43" customHeight="1">
+      <c r="A13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D6:F7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A6:A7"/>
+  <mergeCells count="19">
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D6:F7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="H2:J2"/>
@@ -1573,8 +3872,12 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1586,7 +3889,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1596,184 +3899,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="26">
-      <c r="A7" s="8"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="26" customFormat="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29">
+    <row r="8" spans="1:7" s="28" customFormat="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33">
         <v>1</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="31">
-        <f>'Sprint 4'!B3</f>
+      <c r="C8" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="35">
+        <f>'Sprint-5'!B3</f>
         <v>5</v>
       </c>
-      <c r="E8" s="30">
-        <f>'Sprint 4'!B4</f>
+      <c r="E8" s="34">
+        <f>'Sprint-5'!B4</f>
         <v>0</v>
       </c>
-      <c r="F8" s="30">
-        <f>'Sprint 4'!D3</f>
+      <c r="F8" s="34">
+        <f>'Sprint-5'!D3</f>
         <v>0</v>
       </c>
-      <c r="G8" s="31">
-        <f>'Sprint 4'!D4</f>
+      <c r="G8" s="35">
+        <f>'Sprint-5'!D4</f>
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="17"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="25">
         <f>SUM(D6:D9)</f>
         <v>5</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="25">
         <f>SUM(E6:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="25">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="26">
         <f>SUM(G6:G9)</f>
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="12">
+      <c r="D12" s="8"/>
+      <c r="E12" s="13">
         <f>(D10+E10)*100/G10</f>
         <v>100</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12">
+      <c r="D13" s="8"/>
+      <c r="E13" s="13">
         <f>D10*100/G10</f>
         <v>100</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/Appetite - Test Cases - Sprint 5.xlsx
+++ b/Appetite - Test Cases - Sprint 5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiodealmeidabrunacci/Mobile_Developer/Mobile Application Dev Project/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandoito/Documents/GitHub/726/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="821"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="821"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint-5" sheetId="122" r:id="rId1"/>
@@ -28,12 +28,20 @@
     <definedName name="Port">[1]Validation!$F$2:$F$40</definedName>
     <definedName name="VancoProducts">[1]Validation!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>TC1</t>
   </si>
@@ -200,15 +208,32 @@
   <si>
     <t>To be able to view price category for a choose restaurant in the detail screen.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Open the list of restaurants from the menu at the top-right corner
+</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>List Details
+Check if restaurant review appears in the list</t>
+  </si>
+  <si>
+    <t>For each restaurant listed you might see the restaurant review represented as the quantity of reviews and the text "reviews". For example, if the restaurant has 13 reviews, a grey text will appear on the left of the stars rate as "13 reviews".</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -345,279 +370,279 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -626,75 +651,75 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,18 +728,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,7 +747,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -731,7 +756,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -739,10 +764,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -880,6 +905,12 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -889,15 +920,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -908,27 +954,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3291,9 +3316,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3321,31 +3346,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3373,23 +3381,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3566,16 +3557,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" style="39" customWidth="1"/>
@@ -3584,32 +3575,31 @@
     <col min="6" max="6" width="27.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9" style="8"/>
+    <col min="9" max="9" width="8.83203125" style="8"/>
     <col min="10" max="10" width="18" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1"/>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="13">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="44">
-        <f>COUNTIF(I8:I12,"Pass")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>25</v>
@@ -3621,11 +3611,11 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" thickBot="1">
+    <row r="4" spans="1:10" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>4</v>
       </c>
@@ -3637,21 +3627,20 @@
         <v>19</v>
       </c>
       <c r="D4" s="48">
-        <f>COUNTA(A8:A12)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="13">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3659,47 +3648,47 @@
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
     </row>
-    <row r="6" spans="1:10" s="37" customFormat="1" ht="15">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:10" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="59" t="s">
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="31" customFormat="1" ht="13">
-      <c r="A7" s="56"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+    <row r="7" spans="1:10" s="31" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="52"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="26">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A8" s="38" t="s">
         <v>0</v>
       </c>
@@ -3709,11 +3698,11 @@
       <c r="C8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="38" t="s">
         <v>27</v>
       </c>
@@ -3725,7 +3714,7 @@
       </c>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="26">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="38" t="s">
         <v>1</v>
       </c>
@@ -3735,11 +3724,11 @@
       <c r="C9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="38" t="s">
         <v>27</v>
       </c>
@@ -3751,7 +3740,7 @@
       </c>
       <c r="J9" s="38"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="26">
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A10" s="38" t="s">
         <v>2</v>
       </c>
@@ -3761,11 +3750,11 @@
       <c r="C10" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="38" t="s">
         <v>27</v>
       </c>
@@ -3777,7 +3766,7 @@
       </c>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="85.75" customHeight="1">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="85.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>3</v>
       </c>
@@ -3787,11 +3776,11 @@
       <c r="C11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="38" t="s">
         <v>27</v>
       </c>
@@ -3803,7 +3792,7 @@
       </c>
       <c r="J11" s="38"/>
     </row>
-    <row r="12" spans="1:10" ht="43" customHeight="1">
+    <row r="12" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38" t="s">
         <v>41</v>
       </c>
@@ -3813,11 +3802,11 @@
       <c r="C12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="38" t="s">
         <v>42</v>
       </c>
@@ -3829,7 +3818,7 @@
       </c>
       <c r="J12" s="38"/>
     </row>
-    <row r="13" spans="1:10" ht="43" customHeight="1">
+    <row r="13" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38" t="s">
         <v>44</v>
       </c>
@@ -3839,11 +3828,11 @@
       <c r="C13" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="38" t="s">
         <v>42</v>
       </c>
@@ -3855,14 +3844,39 @@
       </c>
       <c r="J13" s="38"/>
     </row>
+    <row r="14" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D6:F7"/>
+  <mergeCells count="20">
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="H2:J2"/>
@@ -3872,10 +3886,12 @@
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D6:F7"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3892,13 +3908,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23">
+    <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3909,7 +3925,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -3918,7 +3934,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3928,7 +3944,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -3938,7 +3954,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -3947,7 +3963,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3956,7 +3972,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="26">
+    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="19" t="s">
         <v>11</v>
@@ -3977,7 +3993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="28" customFormat="1">
+    <row r="8" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32"/>
       <c r="B8" s="33">
         <v>1</v>
@@ -3987,7 +4003,7 @@
       </c>
       <c r="D8" s="35">
         <f>'Sprint-5'!B3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8" s="34">
         <f>'Sprint-5'!B4</f>
@@ -3999,10 +4015,10 @@
       </c>
       <c r="G8" s="35">
         <f>'Sprint-5'!D4</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="17"/>
       <c r="C9" s="16"/>
@@ -4011,7 +4027,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="23"/>
       <c r="C10" s="24" t="s">
@@ -4019,7 +4035,7 @@
       </c>
       <c r="D10" s="25">
         <f>SUM(D6:D9)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" s="25">
         <f>SUM(E6:E9)</f>
@@ -4031,10 +4047,10 @@
       </c>
       <c r="G10" s="26">
         <f>SUM(G6:G9)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
@@ -4043,7 +4059,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -4059,7 +4075,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
